--- a/data/vo2g1.xlsx
+++ b/data/vo2g1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c3fb2a472a4d152/Skrivebord/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c3fb2a472a4d152/Skrivebord/R/Arbeidskrav/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AB39006C-1333-481D-A174-41C0B1445A6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:40009_{AB39006C-1333-481D-A174-41C0B1445A6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3556CA51-1240-4559-92EA-695400D5991B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vo2data.R" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="#.##"/>
+    <numFmt numFmtId="171" formatCode="#.00"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,9 +567,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % – uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -920,11 +927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -995,19 +1002,19 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>4515</v>
       </c>
       <c r="H2">
         <v>58.87</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>6.2</v>
       </c>
       <c r="J2">
         <v>19</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>166</v>
       </c>
       <c r="L2">
@@ -1019,7 +1026,7 @@
       <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="4">
         <v>56.35</v>
       </c>
     </row>
@@ -1042,19 +1049,19 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>4372</v>
       </c>
       <c r="H3">
         <v>56.56</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>12.1</v>
       </c>
       <c r="J3">
         <v>19</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>163</v>
       </c>
       <c r="L3">
@@ -1066,7 +1073,7 @@
       <c r="N3" t="s">
         <v>17</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="4">
         <v>56.05</v>
       </c>
     </row>
@@ -1089,19 +1096,19 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>5041.63</v>
       </c>
       <c r="H4">
         <v>66.25</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>9</v>
       </c>
       <c r="J4">
         <v>17</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>169.5</v>
       </c>
       <c r="L4">
@@ -1113,7 +1120,7 @@
       <c r="N4" t="s">
         <v>17</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="4">
         <v>74.05</v>
       </c>
     </row>
@@ -1136,19 +1143,19 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>5049.5</v>
       </c>
       <c r="H5">
         <v>66.62</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>11.1</v>
       </c>
       <c r="J5">
         <v>19</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>181</v>
       </c>
       <c r="L5">
@@ -1160,7 +1167,7 @@
       <c r="N5" t="s">
         <v>17</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="4">
         <v>81.5</v>
       </c>
     </row>
@@ -1183,19 +1190,19 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>3088</v>
       </c>
       <c r="H6">
         <v>52.61</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>10.4</v>
       </c>
       <c r="J6">
         <v>19</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>112</v>
       </c>
       <c r="L6">
@@ -1207,7 +1214,7 @@
       <c r="N6" t="s">
         <v>17</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="4">
         <v>60.4</v>
       </c>
     </row>
@@ -1230,19 +1237,19 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>3129.5</v>
       </c>
       <c r="H7">
         <v>52.86</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>13</v>
       </c>
       <c r="J7">
         <v>20</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>118.5</v>
       </c>
       <c r="L7">
@@ -1254,7 +1261,7 @@
       <c r="N7" t="s">
         <v>17</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="4">
         <v>62.9</v>
       </c>
     </row>
@@ -1277,19 +1284,19 @@
       <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>2827.5</v>
       </c>
       <c r="H8">
         <v>50.22</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>7.8</v>
       </c>
       <c r="J8">
         <v>19</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>101</v>
       </c>
       <c r="L8">
@@ -1301,7 +1308,7 @@
       <c r="N8" t="s">
         <v>17</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="4">
         <v>47.9</v>
       </c>
     </row>
@@ -1324,19 +1331,19 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>2897</v>
       </c>
       <c r="H9">
         <v>52.01</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>9.1</v>
       </c>
       <c r="J9">
         <v>19</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>105</v>
       </c>
       <c r="L9">
@@ -1348,7 +1355,7 @@
       <c r="N9" t="s">
         <v>17</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="4">
         <v>47.55</v>
       </c>
     </row>
@@ -1371,19 +1378,19 @@
       <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>4922</v>
       </c>
       <c r="H10">
         <v>67.62</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>13.72</v>
       </c>
       <c r="J10">
         <v>19</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>180.5</v>
       </c>
       <c r="L10">
@@ -1395,7 +1402,7 @@
       <c r="N10" t="s">
         <v>17</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="4">
         <v>62.75</v>
       </c>
     </row>
@@ -1418,19 +1425,19 @@
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>4695.5</v>
       </c>
       <c r="H11">
         <v>64.41</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>13.96</v>
       </c>
       <c r="J11">
         <v>19</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <v>172.5</v>
       </c>
       <c r="L11">
@@ -1442,7 +1449,7 @@
       <c r="N11" t="s">
         <v>17</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="4">
         <v>60.4</v>
       </c>
     </row>
@@ -1465,19 +1472,19 @@
       <c r="F12" t="s">
         <v>16</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>5014.5</v>
       </c>
       <c r="H12">
         <v>64.95</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>12</v>
       </c>
       <c r="J12">
         <v>20</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>193.5</v>
       </c>
       <c r="L12">
@@ -1489,7 +1496,7 @@
       <c r="N12">
         <v>154</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="4">
         <v>68.7</v>
       </c>
     </row>
@@ -1512,19 +1519,19 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>4933.5</v>
       </c>
       <c r="H13">
         <v>64.31</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>10.4</v>
       </c>
       <c r="J13">
         <v>19</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="4">
         <v>189</v>
       </c>
       <c r="L13">
@@ -1536,7 +1543,7 @@
       <c r="N13">
         <v>150</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="4">
         <v>63.35</v>
       </c>
     </row>
@@ -1559,19 +1566,19 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>2627</v>
       </c>
       <c r="H14">
         <v>50.51</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>10.71</v>
       </c>
       <c r="J14">
         <v>19</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <v>107.5</v>
       </c>
       <c r="L14">
@@ -1583,7 +1590,7 @@
       <c r="N14">
         <v>166</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="4">
         <v>68.5</v>
       </c>
     </row>
@@ -1606,19 +1613,19 @@
       <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>2627</v>
       </c>
       <c r="H15">
         <v>49.75</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>11.6</v>
       </c>
       <c r="J15">
         <v>19</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>105.5</v>
       </c>
       <c r="L15">
@@ -1630,7 +1637,7 @@
       <c r="N15">
         <v>160</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="4">
         <v>72.05</v>
       </c>
     </row>
@@ -1653,19 +1660,19 @@
       <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>4128.5</v>
       </c>
       <c r="H16">
         <v>49.5</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>18.100000000000001</v>
       </c>
       <c r="J16">
         <v>19</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>154</v>
       </c>
       <c r="L16">
@@ -1677,7 +1684,7 @@
       <c r="N16" t="s">
         <v>17</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="4">
         <v>51.55</v>
       </c>
     </row>
@@ -1700,19 +1707,19 @@
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>4149</v>
       </c>
       <c r="H17">
         <v>50.05</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>17.399999999999999</v>
       </c>
       <c r="J17">
         <v>19</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>149</v>
       </c>
       <c r="L17">
@@ -1724,7 +1731,7 @@
       <c r="N17" t="s">
         <v>17</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="4">
         <v>53.55</v>
       </c>
     </row>
@@ -1747,19 +1754,19 @@
       <c r="F18" t="s">
         <v>16</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>3555</v>
       </c>
       <c r="H18">
         <v>52.59</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>10</v>
       </c>
       <c r="J18">
         <v>17</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="4">
         <v>112</v>
       </c>
       <c r="L18">
@@ -1771,7 +1778,7 @@
       <c r="N18">
         <v>159</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="4">
         <v>54.85</v>
       </c>
     </row>
@@ -1794,23 +1801,23 @@
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>3682.5</v>
       </c>
       <c r="H19">
         <v>54.56</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>11.2</v>
       </c>
       <c r="J19">
         <v>20</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>127.5</v>
       </c>
       <c r="L19" s="1">
-        <v>1145</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M19">
         <v>202</v>
@@ -1818,7 +1825,7 @@
       <c r="N19">
         <v>180</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="4">
         <v>61.1</v>
       </c>
     </row>
@@ -1841,23 +1848,23 @@
       <c r="F20" t="s">
         <v>16</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>4115</v>
       </c>
       <c r="H20">
         <v>62.82</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>14</v>
       </c>
       <c r="J20">
         <v>18</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="4">
         <v>160</v>
       </c>
-      <c r="L20" s="1">
-        <v>1195</v>
+      <c r="L20" s="2">
+        <v>1.2</v>
       </c>
       <c r="M20">
         <v>193</v>
@@ -1865,7 +1872,7 @@
       <c r="N20">
         <v>151</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="4">
         <v>69.849999999999994</v>
       </c>
     </row>
@@ -1888,22 +1895,22 @@
       <c r="F21" t="s">
         <v>18</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>4076</v>
       </c>
       <c r="H21">
         <v>62.13</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>15.85</v>
       </c>
       <c r="J21">
         <v>20</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <v>150.5</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="2">
         <v>1.2</v>
       </c>
       <c r="M21">
@@ -1912,7 +1919,7 @@
       <c r="N21">
         <v>162</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="4">
         <v>60.8</v>
       </c>
     </row>
@@ -1935,23 +1942,23 @@
       <c r="F22" t="s">
         <v>16</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>4886</v>
       </c>
       <c r="H22">
         <v>68.05</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>16.5</v>
       </c>
       <c r="J22">
         <v>19</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="4">
         <v>161.5</v>
       </c>
       <c r="L22" s="1">
-        <v>1105</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M22">
         <v>204</v>
@@ -1959,7 +1966,7 @@
       <c r="N22">
         <v>168</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="4">
         <v>58.9</v>
       </c>
     </row>
@@ -1982,19 +1989,19 @@
       <c r="F23" t="s">
         <v>18</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>4176</v>
       </c>
       <c r="H23">
         <v>57.36</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>3.1</v>
       </c>
       <c r="J23">
         <v>12</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="4">
         <v>123</v>
       </c>
       <c r="L23">
@@ -2006,7 +2013,7 @@
       <c r="N23">
         <v>131</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="4">
         <v>47.85</v>
       </c>
     </row>
